--- a/Luban/ExcelConfig/Datas/card_singleton.xlsx
+++ b/Luban/ExcelConfig/Datas/card_singleton.xlsx
@@ -9,12 +9,25 @@
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>##var</t>
   </si>
@@ -50,12 +63,15 @@
   </si>
   <si>
     <t>屠戮刀法卡牌</t>
+  </si>
+  <si>
+    <t>地波斩卡牌</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -993,10 +1009,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -1079,6 +1095,11 @@
         <v>11</v>
       </c>
     </row>
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Luban/ExcelConfig/Datas/card_singleton.xlsx
+++ b/Luban/ExcelConfig/Datas/card_singleton.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowHeight="17680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -27,12 +27,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>##var</t>
   </si>
   <si>
-    <t>*card_pool</t>
+    <t>*ability_pool</t>
+  </si>
+  <si>
+    <t>*ability_patch_pool</t>
+  </si>
+  <si>
+    <t>*ability_assist_pool</t>
   </si>
   <si>
     <t>##type</t>
@@ -47,25 +53,40 @@
     <t>##</t>
   </si>
   <si>
-    <t>劈砍卡牌</t>
-  </si>
-  <si>
-    <t>大蒜卡牌</t>
-  </si>
-  <si>
-    <t>跳劈卡牌</t>
-  </si>
-  <si>
-    <t>月之投射卡牌</t>
-  </si>
-  <si>
-    <t>烈火刀法卡牌</t>
-  </si>
-  <si>
-    <t>屠戮刀法卡牌</t>
-  </si>
-  <si>
-    <t>地波斩卡牌</t>
+    <t>劈砍</t>
+  </si>
+  <si>
+    <t>增加伤害</t>
+  </si>
+  <si>
+    <t>袖剑</t>
+  </si>
+  <si>
+    <t>大蒜</t>
+  </si>
+  <si>
+    <t>跳劈</t>
+  </si>
+  <si>
+    <t>月之投射</t>
+  </si>
+  <si>
+    <t>烈火刀法</t>
+  </si>
+  <si>
+    <t>屠戮刀法</t>
+  </si>
+  <si>
+    <t>地波斩</t>
+  </si>
+  <si>
+    <t>瘴气</t>
+  </si>
+  <si>
+    <t>哥布林巫医</t>
+  </si>
+  <si>
+    <t>混乱之箭</t>
   </si>
 </sst>
 </file>
@@ -1009,18 +1030,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="8.875" customWidth="1"/>
     <col min="2" max="2" width="30.75" customWidth="1"/>
-    <col min="3" max="3" width="24.375" customWidth="1"/>
-    <col min="4" max="4" width="64.125" customWidth="1"/>
+    <col min="3" max="4" width="24.375" customWidth="1"/>
     <col min="5" max="5" width="24.625" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
     <col min="7" max="7" width="33.5" customWidth="1"/>
@@ -1029,25 +1049,37 @@
     <col min="10" max="10" width="42.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:2">
+    <row r="1" s="1" customFormat="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:1">
@@ -1062,42 +1094,63 @@
     </row>
     <row r="6" s="1" customFormat="1" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
       <c r="B7" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Luban/ExcelConfig/Datas/card_singleton.xlsx
+++ b/Luban/ExcelConfig/Datas/card_singleton.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17680"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>##var</t>
   </si>
@@ -38,9 +38,6 @@
     <t>*ability_patch_pool</t>
   </si>
   <si>
-    <t>*ability_assist_pool</t>
-  </si>
-  <si>
     <t>##type</t>
   </si>
   <si>
@@ -56,37 +53,67 @@
     <t>劈砍</t>
   </si>
   <si>
-    <t>增加伤害</t>
-  </si>
-  <si>
-    <t>袖剑</t>
+    <t>劈砍加伤</t>
   </si>
   <si>
     <t>大蒜</t>
   </si>
   <si>
+    <t>劈砍补丁1</t>
+  </si>
+  <si>
     <t>跳劈</t>
   </si>
   <si>
+    <t>劈砍补丁2</t>
+  </si>
+  <si>
     <t>月之投射</t>
   </si>
   <si>
+    <t>劈砍补丁3</t>
+  </si>
+  <si>
     <t>烈火刀法</t>
   </si>
   <si>
+    <t>劈砍补丁大1</t>
+  </si>
+  <si>
     <t>屠戮刀法</t>
   </si>
   <si>
+    <t>大风车加Dura</t>
+  </si>
+  <si>
     <t>地波斩</t>
   </si>
   <si>
+    <t>大风车加伤</t>
+  </si>
+  <si>
     <t>瘴气</t>
   </si>
   <si>
+    <t>大风车冷却缩减</t>
+  </si>
+  <si>
     <t>哥布林巫医</t>
   </si>
   <si>
+    <t>大风车加范围</t>
+  </si>
+  <si>
     <t>混乱之箭</t>
+  </si>
+  <si>
+    <t>大风车补丁1</t>
+  </si>
+  <si>
+    <t>大风车补丁2</t>
+  </si>
+  <si>
+    <t>大风车补丁3</t>
   </si>
 </sst>
 </file>
@@ -708,9 +735,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1030,13 +1060,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="8.875" customWidth="1"/>
     <col min="2" max="2" width="30.75" customWidth="1"/>
@@ -1049,7 +1079,7 @@
     <col min="10" max="10" width="42.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:4">
+    <row r="1" s="1" customFormat="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1059,27 +1089,21 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:3">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:4">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:1">
@@ -1094,63 +1118,97 @@
     </row>
     <row r="6" s="1" customFormat="1" spans="1:1">
       <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="2:4">
-      <c r="B7" t="s">
+      <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
-      <c r="B8" t="s">
+    <row r="9" spans="2:3">
+      <c r="B9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="2:2">
-      <c r="B9" t="s">
+      <c r="C9" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
+    <row r="10" spans="2:3">
       <c r="B10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="2:2">
+      <c r="C10" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
       <c r="B11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2">
+        <v>15</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
       <c r="B12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2">
+        <v>17</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
       <c r="B13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2">
+        <v>19</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
       <c r="B14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2">
+        <v>21</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
       <c r="B15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2">
+        <v>23</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3">
       <c r="B16" t="s">
-        <v>19</v>
+        <v>25</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
